--- a/Code/Data/PropertyTycoonBoardData.xlsx
+++ b/Code/Data/PropertyTycoonBoardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dp396\Downloads\Property Tycoon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CD4E97-A80C-48E7-B208-10508697E607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34A29E4-F5F5-4F29-9B2E-9BC2B3DF914F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{3AB37EF7-9957-4EAE-A376-EF9CBBC9245A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
   <si>
     <t>Go</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Go to Jail</t>
-  </si>
-  <si>
-    <t>Go to jail</t>
   </si>
   <si>
     <t>Sirat Mews</t>
@@ -691,7 +688,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>7</v>
@@ -750,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -759,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -788,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -809,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -847,7 +844,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -906,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -939,7 +936,7 @@
         <v>200</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -953,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -991,7 +988,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -1012,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -1047,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -1085,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1150,7 +1147,7 @@
         <v>150</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1246,7 +1243,7 @@
         <v>200</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1260,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
@@ -1298,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -1319,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -1354,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -1392,7 +1389,7 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
         <v>37</v>
@@ -1451,7 +1448,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -1554,7 +1551,7 @@
         <v>200</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1568,7 +1565,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
@@ -1650,7 +1647,7 @@
         <v>150</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1702,7 +1699,7 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -1720,10 +1717,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
         <v>49</v>
-      </c>
-      <c r="D36" t="s">
-        <v>50</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -1755,10 +1752,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -1793,7 +1790,7 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -1814,10 +1811,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -1849,7 +1846,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -1861,7 +1858,7 @@
         <v>200</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -1878,7 +1875,7 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -1899,10 +1896,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1934,13 +1931,13 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
         <v>53</v>
-      </c>
-      <c r="D43" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" t="s">
-        <v>54</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -1958,10 +1955,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1990,10 +1987,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2001,83 +1998,83 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J48" s="5">
         <v>50</v>
       </c>
       <c r="K48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J49" s="5">
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J50" s="5">
         <v>150</v>
       </c>
       <c r="K50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J51" s="5">
         <v>200</v>
       </c>
       <c r="K51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
